--- a/EDBC_TY24.xlsx
+++ b/EDBC_TY24.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{309CB8EC-AE34-4340-9599-02E21E915315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5A051A-E6F5-4E3E-B93D-EE223D1DF709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMS" sheetId="13" r:id="rId1"/>
@@ -421,12 +421,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -441,17 +447,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,15 +456,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -748,10 +754,10 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="8" width="10.73046875" style="1"/>
     <col min="9" max="9" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -759,144 +765,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>200</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>201</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="7"/>
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -905,7 +914,7 @@
     <mergeCell ref="K1:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -914,479 +923,526 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="17.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="G4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="H5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="10" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="G12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="8">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="H13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1398,7 +1454,7 @@
     <mergeCell ref="K9:M10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1406,293 +1462,327 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A4" zoomScale="92" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="D22:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>400</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>410</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="10" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>420</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="M11" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F13" s="1" t="s">
@@ -1712,7 +1802,7 @@
     <mergeCell ref="K5:M6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1721,107 +1811,108 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>500</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="M3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1830,7 +1921,7 @@
     <mergeCell ref="K1:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1838,315 +1929,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>600</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="D4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="D5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>75</v>
       </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>100</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="E6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="E7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>75</v>
       </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>100</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="E8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="E9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>75</v>
       </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2155,7 +2261,7 @@
     <mergeCell ref="K1:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2163,560 +2269,613 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>700</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>701</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>710</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>100</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>711</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="10" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>720</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="8">
         <v>100</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>721</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="8">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="10" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>730</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="8">
         <v>100</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="E18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>731</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="8">
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="M19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:M7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="K11:M12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="K16:M17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="K1:M2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:M7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2724,199 +2883,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>796</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>797</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>100</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>798</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="8" t="s">
         <v>70</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>799</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="2"/>
@@ -2928,7 +3087,7 @@
     <mergeCell ref="K1:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2937,104 +3096,106 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>750</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3043,6 +3204,6 @@
     <mergeCell ref="K1:M2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>